--- a/docs/organization-observation-uv-ips.xlsx
+++ b/docs/organization-observation-uv-ips.xlsx
@@ -1247,8 +1247,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00-06:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00-06:00"/&gt;
+  &lt;start value="2010-03-23T00:00:00-05:00"/&gt;
+  &lt;end value="2010-07-01T00:00:00-05:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -2871,7 +2871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>103</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -5775,7 +5775,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>36</v>
@@ -7065,7 +7065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>266</v>
       </c>
@@ -7075,13 +7075,13 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>36</v>
@@ -7179,7 +7179,7 @@
         <v>37</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>36</v>
@@ -7267,7 +7267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>276</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>36</v>
@@ -8463,7 +8463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>321</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -10171,7 +10171,7 @@
         <v>37</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>36</v>
@@ -10767,7 +10767,7 @@
         <v>37</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>36</v>
@@ -16652,7 +16652,7 @@
         <v>37</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>36</v>
